--- a/data-raw/COVID Dates.xlsx
+++ b/data-raw/COVID Dates.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Start date</t>
   </si>
@@ -161,6 +161,27 @@
   </si>
   <si>
     <t xml:space="preserve">Omicron first UK sequences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.4 first UK sequences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA.5 first UK sequences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBB first UK sequences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kraken (XBB.1.5) first UK sequences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arcturus (X88.1.16) first UK sequences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eris (EG.5.1) first UK sequences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pirola (BA.2.86) first UK sequences</t>
   </si>
 </sst>
 </file>
@@ -299,10 +320,10 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="11:11"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
@@ -437,13 +458,60 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>45150</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
